--- a/AnswerSheet-20.xlsx
+++ b/AnswerSheet-20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E520C3-A341-452B-B3F1-5CE18C85E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C0194-8C6E-4E39-91F7-2F4DE9D69F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="2505" windowWidth="10695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="2550" windowWidth="10695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A2:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
